--- a/template/賃貸管理表.xlsx
+++ b/template/賃貸管理表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\メトロス開発\source\_kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D1AD6-B414-419E-84BB-37CD8292296B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8E3E2A-0415-4E27-A631-BCF336943B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="賃貸管理表" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">賃貸管理表!$A$1:$N$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -774,6 +783,18 @@
     <xf numFmtId="5" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -797,31 +818,12 @@
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="9" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
       <fill>
@@ -1168,6 +1170,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1215,24 +1224,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F854B32-0E28-4EB7-A402-AF7CFA7E258F}" name="テーブル1" displayName="テーブル1" ref="A5:N6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="0" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F854B32-0E28-4EB7-A402-AF7CFA7E258F}" name="テーブル1" displayName="テーブル1" ref="A5:N6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{62063BCC-E71A-4DC7-8C35-6321FBB2CC2D}" name="部屋_x000a_番号" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{AA5FD724-A8B3-4C61-9DF1-48B1CC961789}" name="用途" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{E95443A5-409E-425E-8D32-8B04D12B63F0}" name="賃借人" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{818E815A-B500-45A3-9ED6-BA90ECFC065C}" name="賃料" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{95B5EF5E-1820-41E1-B2D8-5AE863EC6505}" name="賃料_x000a_消費税" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{FC13A139-388F-484F-9D81-9691237D7C06}" name="共益費" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{A1F5295A-C738-4184-9199-9F7AE17CAFC1}" name="共益費_x000a_消費税" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{A77FA566-8109-4569-842B-1530C4218061}" name="合計" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{62063BCC-E71A-4DC7-8C35-6321FBB2CC2D}" name="部屋_x000a_番号" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{AA5FD724-A8B3-4C61-9DF1-48B1CC961789}" name="用途" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E95443A5-409E-425E-8D32-8B04D12B63F0}" name="賃借人" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{818E815A-B500-45A3-9ED6-BA90ECFC065C}" name="賃料" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{95B5EF5E-1820-41E1-B2D8-5AE863EC6505}" name="賃料_x000a_消費税" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FC13A139-388F-484F-9D81-9691237D7C06}" name="共益費" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{A1F5295A-C738-4184-9199-9F7AE17CAFC1}" name="共益費_x000a_消費税" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{A77FA566-8109-4569-842B-1530C4218061}" name="合計" dataDxfId="6">
       <calculatedColumnFormula>SUM(D6:G6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{317A8D40-F5E1-4810-9C35-F1EA9E23A895}" name="敷金" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A9AF630F-DCC8-4440-9621-0D29E967E3F1}" name="契約開始" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A62469F8-AEF6-4378-9EB1-4CEF441CD713}" name="契約終了" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{C6493C47-2352-40FB-BADF-28684E864B97}" name="解約日" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{D7992DE3-E9A8-47C8-BADE-A88F48FFE4CE}" name="明渡日" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{94B6DFA5-5C17-40CF-88F0-70FEC4A03C4B}" name="備考" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{317A8D40-F5E1-4810-9C35-F1EA9E23A895}" name="敷金" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A9AF630F-DCC8-4440-9621-0D29E967E3F1}" name="契約開始" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{A62469F8-AEF6-4378-9EB1-4CEF441CD713}" name="契約終了" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{C6493C47-2352-40FB-BADF-28684E864B97}" name="解約日" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{D7992DE3-E9A8-47C8-BADE-A88F48FFE4CE}" name="明渡日" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{94B6DFA5-5C17-40CF-88F0-70FEC4A03C4B}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1505,29 +1514,26 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="11" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="10" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.7265625" customWidth="1"/>
+    <col min="14" max="14" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1537,56 +1543,59 @@
       <c r="J2" t="s">
         <v>49</v>
       </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
       <c r="M2" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="3" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -1631,7 +1640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L7" s="13"/>
     </row>
   </sheetData>
@@ -1656,22 +1665,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>21</v>
@@ -1689,7 +1698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1719,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1757,17 +1766,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -1807,10 +1816,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="23"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="29"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="7" t="s">
         <v>66</v>
       </c>
